--- a/data/trans_dic/CAGE_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/CAGE_R-Provincia-trans_dic.xlsx
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003402834535736818</v>
+        <v>0.003401432890193411</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05252314539319033</v>
+        <v>0.05035121035034324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02741870583475478</v>
+        <v>0.02776627657661174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007280161323032037</v>
+        <v>0.007457568946751082</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -726,20 +726,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009473723251137654</v>
+        <v>0.009770667271533225</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.001797564620380968</v>
+        <v>0.001816508755827907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02674095469102355</v>
+        <v>0.02533416565260829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02303418285882048</v>
+        <v>0.02256446099812442</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.004704302206747953</v>
+        <v>0.004685175202517446</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02806225766155175</v>
+        <v>0.03025266374961878</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1171336804933219</v>
+        <v>0.1149387520917305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08197991969285987</v>
+        <v>0.08605350976212968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07261205069003826</v>
+        <v>0.07186892143653494</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02174195142919316</v>
+        <v>0.02163556255571755</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01802786427520261</v>
+        <v>0.01785916058212448</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05165831625547561</v>
+        <v>0.04890108707221222</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.01645073338684558</v>
+        <v>0.01788838815758739</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06035567625975388</v>
+        <v>0.05996857874163787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05757275496790732</v>
+        <v>0.05633067657059503</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04878854169882629</v>
+        <v>0.04645912527721649</v>
       </c>
     </row>
     <row r="7">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005852598187041579</v>
+        <v>0.00577125451277671</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01098147251064558</v>
+        <v>0.01226400542482601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002243058897384253</v>
+        <v>0.002237036068909327</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
@@ -856,13 +856,13 @@
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.002886462545690755</v>
+        <v>0.002956844347129567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00534048278521904</v>
+        <v>0.005715600743627477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002089944853155507</v>
+        <v>0.00208124123124295</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -874,29 +874,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02703073684377427</v>
+        <v>0.02630687577769669</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04016668416358255</v>
+        <v>0.04658398655151835</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01990438071327261</v>
+        <v>0.02141642368383531</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.01162534769078379</v>
+        <v>0.01049487945234651</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.01315463894018996</v>
+        <v>0.0131924727474943</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02073705138100011</v>
+        <v>0.02088053275823856</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01177829639397966</v>
+        <v>0.0117763155859084</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.01920368377827589</v>
+        <v>0.0192036837782759</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03197367668312771</v>
+        <v>0.03198747589047936</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.00514753389021897</v>
+        <v>0.005194064670219652</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02750007508209931</v>
+        <v>0.02744340533885103</v>
       </c>
     </row>
     <row r="12">
@@ -992,28 +992,28 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01634397076481859</v>
+        <v>0.01268803031430195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09543227082847297</v>
+        <v>0.0985519361060543</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.01444867321241133</v>
+        <v>0.01615004175167643</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.05857060587182984</v>
+        <v>0.05420912309290307</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.007410604393866199</v>
+        <v>0.007464828980228824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.006676686271368102</v>
+        <v>0.007471308274932481</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07394920190257961</v>
+        <v>0.07566400946061319</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>0.00342538243962845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01204367688755289</v>
+        <v>0.01204367688755288</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.007080520616920441</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005534267108372374</v>
+        <v>0.005408314353197034</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003167706130695023</v>
+        <v>0.00351024696987848</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004812082295221432</v>
+        <v>0.005466988160520193</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.003219075765851773</v>
+        <v>0.003279902911444689</v>
       </c>
     </row>
     <row r="15">
@@ -1112,36 +1112,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03719585029698762</v>
+        <v>0.03601586783886727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01231281549708568</v>
+        <v>0.01242411852771794</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01724845719647991</v>
+        <v>0.01673961767490601</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03194905499544143</v>
+        <v>0.03302323526134708</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02389293277047373</v>
+        <v>0.02311696141682497</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02443682548205672</v>
+        <v>0.02454944267092145</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.006061163597259849</v>
+        <v>0.006934552083272778</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.008440670654490544</v>
+        <v>0.008379378071734231</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0246430012971544</v>
+        <v>0.02475628730736061</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.006212529366968909</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01074110411969075</v>
+        <v>0.01295652860280674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004421412796900445</v>
+        <v>0.00438907788464986</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005339163355327445</v>
+        <v>0.005677485702768463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00217869335669765</v>
+        <v>0.002183148358001807</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1238,34 +1238,34 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02621524880015767</v>
+        <v>0.02445865368307782</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06158413413232149</v>
+        <v>0.06112811450781691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03610804850986066</v>
+        <v>0.03640494395347395</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.04758615418613434</v>
+        <v>0.03742452619162866</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02266036641034899</v>
+        <v>0.02232491480183959</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02847412888843107</v>
+        <v>0.03014301214279794</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01768029162364735</v>
+        <v>0.01817038817331853</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1289,7 @@
         <v>0.007266066029983836</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02641414080741401</v>
+        <v>0.026414140807414</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.007107863418582399</v>
@@ -1313,7 +1313,7 @@
         <v>0.005320487807993302</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02502647000387571</v>
+        <v>0.0250264700038757</v>
       </c>
     </row>
     <row r="20">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01002512235210501</v>
+        <v>0.01118068662632393</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1343,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001879311138774497</v>
+        <v>0.001891945085330078</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.001676113701993701</v>
+        <v>0.001680559707694946</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01164791840827965</v>
+        <v>0.01172449153580827</v>
       </c>
     </row>
     <row r="21">
@@ -1366,38 +1366,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03771022606754411</v>
+        <v>0.03518014581314902</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02499680152282257</v>
+        <v>0.02529236775045763</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02254065275644359</v>
+        <v>0.02322526714371699</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05327214632785508</v>
+        <v>0.05652009607745375</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0218085409287934</v>
+        <v>0.02509994314981903</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.01906177726363596</v>
+        <v>0.01713861205788479</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02141827084802986</v>
+        <v>0.02426802723678717</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.009552100773413747</v>
+        <v>0.01120983274559531</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01435109538504556</v>
+        <v>0.01421843327195159</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04866338227082283</v>
+        <v>0.04785740400462839</v>
       </c>
     </row>
     <row r="22">
@@ -1421,7 +1421,7 @@
         <v>0.02633293312526742</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04144453568604642</v>
+        <v>0.04144453568604643</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1456,38 +1456,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001386115489046725</v>
+        <v>0.001370275354491217</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008560868817348917</v>
+        <v>0.009198764553445114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01619503057651846</v>
+        <v>0.014827792445073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02281558996641002</v>
+        <v>0.02217096062951871</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003868027925278567</v>
+        <v>0.003031585236040427</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01878874661499103</v>
+        <v>0.01893332565714797</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0006819497878339539</v>
+        <v>0.0006767364030124169</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005816815106011168</v>
+        <v>0.005967067646921926</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01110146982917667</v>
+        <v>0.0109668764109634</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02562117680154083</v>
+        <v>0.02625259162012082</v>
       </c>
     </row>
     <row r="24">
@@ -1498,38 +1498,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01113070544161208</v>
+        <v>0.0125869179714823</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0318938675902956</v>
+        <v>0.03130682527915893</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04302833286845323</v>
+        <v>0.04435637382021047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07217655315278608</v>
+        <v>0.07004681131447792</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.009765582768431464</v>
+        <v>0.009888050089623235</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01894381009868475</v>
+        <v>0.01781210699409608</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08942321895427531</v>
+        <v>0.09802541224166768</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.005878700078544362</v>
+        <v>0.005897442908117942</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01823334503908651</v>
+        <v>0.01819995996368751</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02639473546407474</v>
+        <v>0.02589508195014767</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0642016174956167</v>
+        <v>0.0628610168384432</v>
       </c>
     </row>
     <row r="25">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001188693849649719</v>
+        <v>0.001189585744466165</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006680469361415417</v>
+        <v>0.007349701714006398</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.002605330212588422</v>
+        <v>0.002462925963407763</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.003360724122408698</v>
+        <v>0.003124699295609612</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.001684119291722852</v>
+        <v>0.00155072415236451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.003863718375130935</v>
+        <v>0.003876557919667939</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.001829946342204389</v>
+        <v>0.001976869284069795</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.005164254653490564</v>
+        <v>0.00492705401384429</v>
       </c>
     </row>
     <row r="27">
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01166628246631527</v>
+        <v>0.01082754698440316</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02879896368536461</v>
+        <v>0.03039570264656115</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01482086416771829</v>
+        <v>0.01465644223675512</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02875524253936149</v>
+        <v>0.02898393002838284</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.009120998719969135</v>
+        <v>0.00785045533636221</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.00603297902624537</v>
+        <v>0.006274012565831858</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.009308567229882872</v>
+        <v>0.007947470439238224</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04853740298043138</v>
+        <v>0.0440932545092713</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.008236524717594401</v>
+        <v>0.008448054848846144</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01505616479014611</v>
+        <v>0.01499716664475672</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.009087010003487515</v>
+        <v>0.009489067439522223</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0266728927100296</v>
+        <v>0.02681906750991538</v>
       </c>
     </row>
     <row r="28">
@@ -1701,7 +1701,7 @@
         <v>0.004764510512152104</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.01857217496712687</v>
+        <v>0.01857217496712686</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.005247711592209641</v>
@@ -1713,7 +1713,7 @@
         <v>0.009463780512459309</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.02251614174435218</v>
+        <v>0.02251614174435219</v>
       </c>
     </row>
     <row r="29">
@@ -1724,40 +1724,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01458988868132487</v>
+        <v>0.01473616618785992</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01100668276237278</v>
+        <v>0.01052146857952955</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01740687539016688</v>
+        <v>0.01765908853092992</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0005601107140409108</v>
+        <v>0.0005611104118137482</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.002924139433460672</v>
+        <v>0.002859876747790308</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0106850183987965</v>
+        <v>0.01066764722450474</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.007859928362435972</v>
+        <v>0.007658755628866626</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.007262377197038893</v>
+        <v>0.007441595248495876</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01732933819817283</v>
+        <v>0.01693423173424262</v>
       </c>
     </row>
     <row r="30">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02484559453478931</v>
+        <v>0.02478404426168417</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01917639135806484</v>
+        <v>0.01930128611607264</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03338830762963848</v>
+        <v>0.03347910747208128</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.003468477009389347</v>
+        <v>0.003165040112038954</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.007567139068040416</v>
+        <v>0.007582154417295484</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03131233246720073</v>
+        <v>0.02976064351388362</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01338966741313569</v>
+        <v>0.01300722602667501</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01212264244503155</v>
+        <v>0.0121205847405442</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02941075561889078</v>
+        <v>0.02934439611852979</v>
       </c>
     </row>
     <row r="31">
@@ -2079,13 +2079,13 @@
         <v>929</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15481</v>
+        <v>14840</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8055</v>
+        <v>8157</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1237</v>
+        <v>1267</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -2094,20 +2094,20 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2735</v>
+        <v>2821</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15563</v>
+        <v>14744</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13417</v>
+        <v>13143</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="7">
@@ -2118,38 +2118,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7661</v>
+        <v>8259</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34524</v>
+        <v>33877</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24083</v>
+        <v>25279</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12337</v>
+        <v>12210</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5671</v>
+        <v>5643</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5178</v>
+        <v>5130</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14914</v>
+        <v>14118</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>8782</v>
+        <v>9550</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35126</v>
+        <v>34901</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33534</v>
+        <v>32811</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13033</v>
+        <v>12411</v>
       </c>
     </row>
     <row r="8">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2886</v>
+        <v>2846</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5551</v>
+        <v>6200</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
@@ -2268,13 +2268,13 @@
       </c>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>2878</v>
+        <v>2948</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5497</v>
+        <v>5883</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="N10" s="6" t="inlineStr"/>
     </row>
@@ -2286,29 +2286,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13328</v>
+        <v>12971</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20305</v>
+        <v>23549</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10003</v>
+        <v>10763</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6081</v>
+        <v>5490</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>13115</v>
+        <v>13153</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21344</v>
+        <v>21492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12081</v>
+        <v>12078</v>
       </c>
       <c r="N11" s="6" t="inlineStr"/>
     </row>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5989</v>
+        <v>5992</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7604</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="15">
@@ -2448,28 +2448,28 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5207</v>
+        <v>4042</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17876</v>
+        <v>18460</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4927</v>
+        <v>5507</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5225</v>
+        <v>4836</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>4929</v>
+        <v>4965</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>4372</v>
+        <v>4893</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>20449</v>
+        <v>20923</v>
       </c>
     </row>
     <row r="16">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1985</v>
+        <v>1940</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3513</v>
+        <v>3992</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1098</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="19">
@@ -2612,36 +2612,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13341</v>
+        <v>12918</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4605</v>
+        <v>4646</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6381</v>
+        <v>6193</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6475</v>
+        <v>6692</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8875</v>
+        <v>8587</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17842</v>
+        <v>17924</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4624</v>
+        <v>5291</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>6392</v>
+        <v>6345</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>8404</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="20">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2284</v>
+        <v>2755</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2308</v>
+        <v>2454</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2782,34 +2782,34 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5330</v>
+        <v>4973</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13094</v>
+        <v>12997</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7627</v>
+        <v>7689</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>9882</v>
+        <v>7772</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>9313</v>
+        <v>9175</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>12307</v>
+        <v>13028</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7599</v>
+        <v>7810</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="24">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1634</v>
+        <v>1822</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3042</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="27">
@@ -2954,38 +2954,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10212</v>
+        <v>9527</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6849</v>
+        <v>6930</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5931</v>
+        <v>6111</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8682</v>
+        <v>9211</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6066</v>
+        <v>6981</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>5206</v>
+        <v>4681</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11758</v>
+        <v>13322</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5292</v>
+        <v>6210</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>7696</v>
+        <v>7624</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>12709</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="28">
@@ -3088,38 +3088,38 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5674</v>
+        <v>6097</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10633</v>
+        <v>9735</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7979</v>
+        <v>7753</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2674</v>
+        <v>2096</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4391</v>
+        <v>4424</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>7891</v>
+        <v>8095</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>14963</v>
+        <v>14782</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>14947</v>
+        <v>15315</v>
       </c>
     </row>
     <row r="31">
@@ -3130,38 +3130,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6846</v>
+        <v>7741</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21139</v>
+        <v>20750</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28251</v>
+        <v>29123</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25241</v>
+        <v>24496</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>6776</v>
+        <v>6861</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>13096</v>
+        <v>12313</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20896</v>
+        <v>22907</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7367</v>
+        <v>7391</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>24736</v>
+        <v>24691</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>35576</v>
+        <v>34903</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>37454</v>
+        <v>36672</v>
       </c>
     </row>
     <row r="32">
@@ -3264,16 +3264,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5205</v>
+        <v>5726</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2028</v>
+        <v>1918</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1053</v>
+        <v>979</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
@@ -3288,16 +3288,16 @@
         <v>0</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2572</v>
+        <v>2368</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>6193</v>
+        <v>6214</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2937</v>
+        <v>3172</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2207</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="35">
@@ -3308,40 +3308,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8677</v>
+        <v>8053</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>22437</v>
+        <v>23681</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>11539</v>
+        <v>11411</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>9006</v>
+        <v>9078</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7146</v>
+        <v>6151</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>4970</v>
+        <v>5169</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>7690</v>
+        <v>6566</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>5541</v>
+        <v>5034</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>12580</v>
+        <v>12903</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>24134</v>
+        <v>24040</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>14582</v>
+        <v>15228</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>11399</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="36">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>49996</v>
+        <v>50498</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>37361</v>
+        <v>35714</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>29127</v>
+        <v>29549</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>10365</v>
+        <v>10137</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>9577</v>
+        <v>9562</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>54902</v>
+        <v>53497</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>50393</v>
+        <v>51636</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>44530</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="39">
@@ -3488,40 +3488,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>85140</v>
+        <v>84929</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>65091</v>
+        <v>65515</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>55869</v>
+        <v>56021</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>12342</v>
+        <v>11262</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>26822</v>
+        <v>26875</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>28066</v>
+        <v>26675</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>93528</v>
+        <v>90857</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>84118</v>
+        <v>84103</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>75575</v>
+        <v>75404</v>
       </c>
     </row>
     <row r="40">
